--- a/part1_openMSE_GRYM_approx/part1_shared_files/data/grym_parameter_scenarios.xlsx
+++ b/part1_openMSE_GRYM_approx/part1_shared_files/data/grym_parameter_scenarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno\Dropbox\krill\krill_mse\part1_openMSE_GRYM_approx\part1_shared_files\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F92C645-E432-4354-813C-6C2BC9315939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F1CBE2-CB6C-4EF4-BCCD-96B3AB210461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" activeTab="2" xr2:uid="{F2FA1B8A-6490-4129-9002-BF2DD7C587F5}"/>
   </bookViews>
@@ -38,10 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="122">
-  <si>
-    <t>rec_scen_id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="141">
   <si>
     <t>data_years</t>
   </si>
@@ -112,12 +109,6 @@
     <t>pr_ref_age</t>
   </si>
   <si>
-    <t>max_lt_50pc_mm</t>
-  </si>
-  <si>
-    <t>mat_range</t>
-  </si>
-  <si>
     <t>Maschete_description</t>
   </si>
   <si>
@@ -136,33 +127,21 @@
     <t>t0</t>
   </si>
   <si>
-    <t>k</t>
-  </si>
-  <si>
     <t>Min length, 50% Selected (mm)</t>
   </si>
   <si>
     <t>Max length, 50% Selected (mm)</t>
   </si>
   <si>
-    <t>Range over which selection occurs (mm)</t>
-  </si>
-  <si>
     <t>Reasonable upper bound for Annual F</t>
   </si>
   <si>
-    <t>B0logSD</t>
-  </si>
-  <si>
     <t>value</t>
   </si>
   <si>
     <t>reference</t>
   </si>
   <si>
-    <t>L∞</t>
-  </si>
-  <si>
     <t>Thanassekos (2021)</t>
   </si>
   <si>
@@ -196,9 +175,6 @@
     <t>last_age</t>
   </si>
   <si>
-    <t>linf</t>
-  </si>
-  <si>
     <t>Weight-at-length</t>
   </si>
   <si>
@@ -244,15 +220,6 @@
     <t>Fishing effort</t>
   </si>
   <si>
-    <t>wl_A</t>
-  </si>
-  <si>
-    <t>wl_B</t>
-  </si>
-  <si>
-    <t>select_range</t>
-  </si>
-  <si>
     <t>Start growth period (day/month)</t>
   </si>
   <si>
@@ -283,24 +250,9 @@
     <t>fishing_end</t>
   </si>
   <si>
-    <t>F_upper_bound</t>
-  </si>
-  <si>
     <t>ref_date</t>
   </si>
   <si>
-    <t>mat_minlt_50pc_mm</t>
-  </si>
-  <si>
-    <t>select_ltmin_50pc_mm</t>
-  </si>
-  <si>
-    <t>select_ltmax_50pc_mm</t>
-  </si>
-  <si>
-    <t>2.236E10-6</t>
-  </si>
-  <si>
     <t>Start of Fishing Season (day/month)</t>
   </si>
   <si>
@@ -319,9 +271,6 @@
     <t>n_iter</t>
   </si>
   <si>
-    <t>n_years</t>
-  </si>
-  <si>
     <t>Projection length (number of years)</t>
   </si>
   <si>
@@ -334,33 +283,9 @@
     <t>B0 estimation</t>
   </si>
   <si>
-    <t>PR-1</t>
-  </si>
-  <si>
-    <t>PR-2</t>
-  </si>
-  <si>
-    <t>PR-3</t>
-  </si>
-  <si>
-    <t>PR-4</t>
-  </si>
-  <si>
-    <t>maturity_scen_id</t>
-  </si>
-  <si>
-    <t>mat-1</t>
-  </si>
-  <si>
     <t>source</t>
   </si>
   <si>
-    <t>US-AMLR summer survey</t>
-  </si>
-  <si>
-    <t>mat-2</t>
-  </si>
-  <si>
     <t>Mortality</t>
   </si>
   <si>
@@ -394,16 +319,148 @@
     <t>Within-year natural mortality pattern</t>
   </si>
   <si>
-    <t>Within-year fishing mortality pattern</t>
-  </si>
-  <si>
-    <t>F_within_year</t>
-  </si>
-  <si>
-    <t>Pop model structure</t>
-  </si>
-  <si>
-    <t>n_timesteps</t>
+    <t>pr_scen_id</t>
+  </si>
+  <si>
+    <t>L∞ (mm)</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Linf</t>
+  </si>
+  <si>
+    <t>Fmax</t>
+  </si>
+  <si>
+    <t>nsteps</t>
+  </si>
+  <si>
+    <t>sel50Min</t>
+  </si>
+  <si>
+    <t>sel50Max</t>
+  </si>
+  <si>
+    <t>selrange</t>
+  </si>
+  <si>
+    <t>mat50Min</t>
+  </si>
+  <si>
+    <t>mat50Max</t>
+  </si>
+  <si>
+    <t>matrange</t>
+  </si>
+  <si>
+    <t>B0logsd</t>
+  </si>
+  <si>
+    <t>n.years</t>
+  </si>
+  <si>
+    <t>mat_scen_id</t>
+  </si>
+  <si>
+    <t>Age plus group</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>age_plus</t>
+  </si>
+  <si>
+    <t>mat-2010</t>
+  </si>
+  <si>
+    <t>mat-2021</t>
+  </si>
+  <si>
+    <t>US-AMLR summer surveys</t>
+  </si>
+  <si>
+    <t>PR-emm21</t>
+  </si>
+  <si>
+    <t>PR-amlr</t>
+  </si>
+  <si>
+    <t>PR-atlantida</t>
+  </si>
+  <si>
+    <t>PR-amlr-haul</t>
+  </si>
+  <si>
+    <t>Population model structure</t>
+  </si>
+  <si>
+    <t>2.24E-06</t>
+  </si>
+  <si>
+    <t>3.314</t>
+  </si>
+  <si>
+    <t>21/Oct</t>
+  </si>
+  <si>
+    <t>12/Feb</t>
+  </si>
+  <si>
+    <t>15/Dec</t>
+  </si>
+  <si>
+    <t>15/Feb</t>
+  </si>
+  <si>
+    <t>01/Dec</t>
+  </si>
+  <si>
+    <t>30/Nov</t>
+  </si>
+  <si>
+    <t>01/Jan</t>
+  </si>
+  <si>
+    <t>15/Jan</t>
+  </si>
+  <si>
+    <t>01/Oct</t>
+  </si>
+  <si>
+    <t>0.361</t>
+  </si>
+  <si>
+    <t>@maschette_etal21</t>
+  </si>
+  <si>
+    <t>citation_key</t>
+  </si>
+  <si>
+    <t>@thanassekos_etal21</t>
+  </si>
+  <si>
+    <t>@constable_delamare96</t>
+  </si>
+  <si>
+    <t>@kinzey21</t>
+  </si>
+  <si>
+    <t>@sc-camlr00</t>
+  </si>
+  <si>
+    <t>@kawaguchi16</t>
+  </si>
+  <si>
+    <t>Ramp width (mm)</t>
   </si>
 </sst>
 </file>
@@ -445,13 +502,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -769,71 +827,71 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="29.5859375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.234375" customWidth="1"/>
+    <col min="3" max="3" width="14.29296875" customWidth="1"/>
     <col min="4" max="4" width="31.87890625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.9375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.1171875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.05859375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.05859375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.1171875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="36.3515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.234375" customWidth="1"/>
+    <col min="10" max="10" width="36.29296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.29296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K1" t="s">
         <v>20</v>
-      </c>
-      <c r="E1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F1" t="s">
-        <v>111</v>
-      </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" t="s">
-        <v>116</v>
-      </c>
-      <c r="K1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
       <c r="D2" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="E2">
         <v>0.55700000000000005</v>
@@ -845,30 +903,30 @@
         <v>17</v>
       </c>
       <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" t="s">
-        <v>9</v>
-      </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
       <c r="D3" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="E3">
         <v>0.40789999999999998</v>
@@ -880,30 +938,30 @@
         <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" t="s">
         <v>12</v>
       </c>
-      <c r="J3" t="s">
-        <v>13</v>
-      </c>
       <c r="K3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4">
         <v>2020</v>
       </c>
       <c r="D4" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="E4">
         <v>0.42809999999999998</v>
@@ -915,30 +973,30 @@
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
       <c r="D5" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="E5">
         <v>0.36299999999999999</v>
@@ -950,16 +1008,16 @@
         <v>21</v>
       </c>
       <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s">
         <v>18</v>
       </c>
-      <c r="I5" t="s">
-        <v>19</v>
-      </c>
       <c r="J5" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="K5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -974,45 +1032,45 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="14.52734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.234375" customWidth="1"/>
-    <col min="3" max="3" width="17.8203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.9375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.3515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.64453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5859375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.29296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.87890625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.29296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" t="s">
         <v>104</v>
       </c>
-      <c r="C1" t="s">
-        <v>83</v>
-      </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="E1" t="s">
-        <v>25</v>
+        <v>106</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C2">
         <v>32</v>
@@ -1024,15 +1082,15 @@
         <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B3" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="C3">
         <v>37.6</v>
@@ -1044,7 +1102,7 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1055,499 +1113,571 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{193E6361-1076-4B54-9DB6-BDA2F0E5AF84}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="27.87890625" customWidth="1"/>
-    <col min="2" max="2" width="32.64453125" customWidth="1"/>
-    <col min="3" max="3" width="32.64453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.8203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.76171875" customWidth="1"/>
+    <col min="2" max="2" width="32.703125" customWidth="1"/>
+    <col min="3" max="3" width="32.703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.29296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.703125" customWidth="1"/>
     <col min="6" max="6" width="15.29296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
         <v>49</v>
       </c>
-      <c r="C1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" t="s">
-        <v>57</v>
-      </c>
       <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2">
+        <v>22</v>
+      </c>
+      <c r="D2" s="4">
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="C4" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="B5" t="s">
-        <v>118</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
+        <v>43</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>120</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1</v>
+        <v>44</v>
+      </c>
+      <c r="D6" s="4">
+        <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>120</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7">
-        <v>7</v>
-      </c>
-      <c r="E7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
+        <v>112</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>120</v>
       </c>
       <c r="B8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" s="4">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" t="s">
+        <v>136</v>
+      </c>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="4">
+        <v>60</v>
+      </c>
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.48</v>
+      </c>
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s">
+        <v>135</v>
+      </c>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" s="4">
+        <v>30</v>
+      </c>
+      <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="4">
+        <v>35</v>
+      </c>
+      <c r="E19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" t="s">
+        <v>140</v>
+      </c>
+      <c r="C20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" s="4">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A23" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" t="s">
+        <v>107</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E23" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E24" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A25" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A26" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E26" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A27" t="s">
         <v>78</v>
       </c>
-      <c r="C8" t="s">
-        <v>121</v>
-      </c>
-      <c r="D8">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="B27" t="s">
         <v>31</v>
       </c>
-      <c r="C9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A10" t="s">
-        <v>65</v>
-      </c>
-      <c r="B10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10">
-        <v>60</v>
-      </c>
-      <c r="E10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11">
-        <v>0.48</v>
-      </c>
-      <c r="E11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="1">
-        <v>45220</v>
-      </c>
-      <c r="E12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="1">
-        <v>44969</v>
-      </c>
-      <c r="E13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A15" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="1">
-        <v>3.3140000000000001</v>
-      </c>
-      <c r="E15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A16" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="1">
-        <v>45275</v>
-      </c>
-      <c r="E16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A17" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="1">
-        <v>44972</v>
-      </c>
-      <c r="E17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A18" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18">
-        <v>30</v>
-      </c>
-      <c r="E18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A19" t="s">
-        <v>66</v>
-      </c>
-      <c r="B19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" t="s">
-        <v>85</v>
-      </c>
-      <c r="D19">
+      <c r="C27" t="s">
+        <v>99</v>
+      </c>
+      <c r="D27" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="E27" t="s">
         <v>35</v>
       </c>
-      <c r="E19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A20" t="s">
-        <v>66</v>
-      </c>
-      <c r="B20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20">
-        <v>11</v>
-      </c>
-      <c r="E20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A21" t="s">
-        <v>67</v>
-      </c>
-      <c r="B21" t="s">
-        <v>87</v>
-      </c>
-      <c r="C21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D21" s="1">
-        <v>45261</v>
-      </c>
-      <c r="E21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A22" t="s">
-        <v>67</v>
-      </c>
-      <c r="B22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C22" t="s">
-        <v>80</v>
-      </c>
-      <c r="D22" s="1">
-        <v>45260</v>
-      </c>
-      <c r="E22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A23" t="s">
-        <v>97</v>
-      </c>
-      <c r="B23" t="s">
-        <v>89</v>
-      </c>
-      <c r="C23" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23">
-        <v>0.36099999999999999</v>
-      </c>
-      <c r="E23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A24" t="s">
-        <v>97</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="F27" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A28" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" t="s">
+        <v>108</v>
+      </c>
+      <c r="D28" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" t="s">
         <v>75</v>
       </c>
-      <c r="C24" t="s">
-        <v>63</v>
-      </c>
-      <c r="D24" s="1">
-        <v>44927</v>
-      </c>
-      <c r="E24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A25" t="s">
-        <v>97</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="C29" t="s">
         <v>76</v>
       </c>
-      <c r="C25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D25" s="1">
-        <v>44941</v>
-      </c>
-      <c r="E25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A26" t="s">
-        <v>96</v>
-      </c>
-      <c r="B26" t="s">
-        <v>77</v>
-      </c>
-      <c r="C26" t="s">
-        <v>82</v>
-      </c>
-      <c r="D26" s="1">
-        <v>45200</v>
-      </c>
-      <c r="E26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A27" t="s">
-        <v>95</v>
-      </c>
-      <c r="B27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" t="s">
-        <v>81</v>
-      </c>
-      <c r="D27">
-        <v>1.5</v>
-      </c>
-      <c r="E27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A28" t="s">
-        <v>95</v>
-      </c>
-      <c r="B28" t="s">
-        <v>94</v>
-      </c>
-      <c r="C28" t="s">
-        <v>93</v>
-      </c>
-      <c r="D28">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A29" t="s">
-        <v>95</v>
-      </c>
-      <c r="B29" t="s">
-        <v>91</v>
-      </c>
-      <c r="C29" t="s">
-        <v>92</v>
-      </c>
-      <c r="D29" s="2">
+      <c r="D29" s="4">
         <v>10001</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
